--- a/aoiConditions/train2Block4.xlsx
+++ b/aoiConditions/train2Block4.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
   </si>
 </sst>
 </file>
